--- a/cloud_py.xlsx
+++ b/cloud_py.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-34180" yWindow="1340" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="-27060" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>web form</t>
   </si>
@@ -83,9 +83,6 @@
     <t>p_password</t>
   </si>
   <si>
-    <t>python web output</t>
-  </si>
-  <si>
     <t>_name</t>
   </si>
   <si>
@@ -93,6 +90,42 @@
   </si>
   <si>
     <t>_hashed_password</t>
+  </si>
+  <si>
+    <t>python api input</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>python web/api output</t>
+  </si>
+  <si>
+    <t>item_name</t>
+  </si>
+  <si>
+    <t>_item_name</t>
+  </si>
+  <si>
+    <t>tbl_item column</t>
+  </si>
+  <si>
+    <t>item_id</t>
+  </si>
+  <si>
+    <t>p_item_name</t>
+  </si>
+  <si>
+    <t>response</t>
+  </si>
+  <si>
+    <t>Email</t>
   </si>
 </sst>
 </file>
@@ -407,22 +440,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D8:I12"/>
+  <dimension ref="D8:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
         <v>0</v>
       </c>
@@ -430,7 +464,10 @@
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
       </c>
       <c r="H8" t="s">
         <v>7</v>
@@ -438,12 +475,21 @@
       <c r="I8" t="s">
         <v>8</v>
       </c>
+      <c r="J8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
         <v>13</v>
       </c>
       <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
         <v>13</v>
       </c>
       <c r="H9" t="s">
@@ -452,8 +498,11 @@
       <c r="I9" t="s">
         <v>13</v>
       </c>
+      <c r="J9" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
         <v>4</v>
       </c>
@@ -461,7 +510,10 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
       </c>
       <c r="H10" t="s">
         <v>9</v>
@@ -469,8 +521,14 @@
       <c r="I10" t="s">
         <v>15</v>
       </c>
+      <c r="J10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
         <v>5</v>
       </c>
@@ -478,7 +536,10 @@
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
       </c>
       <c r="H11" t="s">
         <v>11</v>
@@ -486,8 +547,14 @@
       <c r="I11" t="s">
         <v>16</v>
       </c>
+      <c r="J11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
         <v>6</v>
       </c>
@@ -495,13 +562,74 @@
         <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>24</v>
       </c>
       <c r="H12" t="s">
         <v>10</v>
       </c>
       <c r="I12" t="s">
         <v>17</v>
+      </c>
+      <c r="J12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
